--- a/data.xlsx
+++ b/data.xlsx
@@ -793,7 +793,7 @@
     <t xml:space="preserve">3F (Bantu)</t>
   </si>
   <si>
-    <t xml:space="preserve">1D (08:00-13:00) + 2E (Bantu)</t>
+    <t xml:space="preserve">1D (08:00-13:00) + 1E (Bantu)</t>
   </si>
   <si>
     <t xml:space="preserve">3E</t>
@@ -842,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="m&quot;, &quot;d&quot;, &quot;yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -884,6 +884,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -1260,7 +1266,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21953,17 +21959,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BM23"/>
+  <dimension ref="A1:BM29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
@@ -22127,7 +22133,7 @@
       <c r="BL2" s="44"/>
       <c r="BM2" s="44"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="45" t="s">
         <v>17</v>
       </c>
@@ -22162,7 +22168,7 @@
       <c r="AW3" s="44"/>
       <c r="AX3" s="44"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="47" t="s">
         <v>18</v>
       </c>
@@ -22273,7 +22279,7 @@
       <c r="AW4" s="44"/>
       <c r="AX4" s="44"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="49" t="s">
         <v>20</v>
       </c>
@@ -22302,7 +22308,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="48" t="s">
         <v>21</v>
       </c>
@@ -22404,7 +22410,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="50" t="s">
         <v>22</v>
       </c>
@@ -22485,7 +22491,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="51" t="s">
         <v>19</v>
       </c>
@@ -22499,12 +22505,14 @@
       <c r="J8" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="K8" s="47" t="s">
+      <c r="L8" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="M8" s="44"/>
       <c r="N8" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="O8" s="51" t="s">
+        <v>227</v>
       </c>
       <c r="T8" s="51" t="s">
         <v>219</v>
@@ -22526,7 +22534,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="53" t="s">
         <v>23</v>
       </c>
@@ -22586,7 +22594,7 @@
       <c r="AX9" s="55"/>
       <c r="AY9" s="55"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="45" t="s">
         <v>17</v>
       </c>
@@ -22624,7 +22632,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="47" t="s">
         <v>18</v>
       </c>
@@ -22667,7 +22675,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
@@ -22760,7 +22768,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="48" t="s">
         <v>21</v>
       </c>
@@ -22787,7 +22795,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="50" t="s">
         <v>22</v>
       </c>
@@ -22862,7 +22870,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="51" t="s">
         <v>19</v>
       </c>
@@ -22879,13 +22887,13 @@
       <c r="I15" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="L15" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="L15" s="51" t="s">
+      <c r="M15" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="M15" s="51" t="s">
+      <c r="N15" s="51" t="s">
         <v>232</v>
       </c>
       <c r="O15" s="51" t="s">
@@ -22922,7 +22930,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="53" t="s">
         <v>23</v>
       </c>
@@ -23031,7 +23039,7 @@
       <c r="AX16" s="54"/>
       <c r="AY16" s="55"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="45" t="s">
         <v>17</v>
       </c>
@@ -23153,7 +23161,7 @@
       <c r="AW17" s="44"/>
       <c r="AX17" s="44"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="47" t="s">
         <v>18</v>
       </c>
@@ -23170,7 +23178,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="49" t="s">
         <v>20</v>
       </c>
@@ -23210,7 +23218,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="48" t="s">
         <v>21</v>
       </c>
@@ -23246,7 +23254,7 @@
       </c>
       <c r="AL20" s="44"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="50" t="s">
         <v>22</v>
       </c>
@@ -23279,7 +23287,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="51" t="s">
         <v>19</v>
       </c>
@@ -23299,17 +23307,14 @@
       <c r="I22" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="J22" s="51" t="s">
+      <c r="L22" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="M22" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="L22" s="51" t="s">
-        <v>225</v>
-      </c>
       <c r="N22" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O22" s="51" t="s">
         <v>228</v>
@@ -23381,7 +23386,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="53" t="s">
         <v>23</v>
       </c>
@@ -23438,6 +23443,12 @@
         <v>261</v>
       </c>
     </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:B9"/>
